--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46043.02</v>
+        <v>435196.85</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46043.02</v>
+        <v>145065.62</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46043.02</v>
+        <v>45697.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>340578.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>48920.65</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,55 +439,75 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>435196.85</v>
+        <v>45697.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>45696.49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145065.62</v>
+        <v>340578.7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>340021.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45697.5</v>
+        <v>48920.65</v>
+      </c>
+      <c r="C4" t="n">
+        <v>47985.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>340578.7</v>
+        <v>145065.62</v>
+      </c>
+      <c r="C5" t="n">
+        <v>144567.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48920.65</v>
+        <v>435196.85</v>
+      </c>
+      <c r="C6" t="n">
+        <v>433703.13</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45696.49</v>
+        <v>46065.08</v>
       </c>
       <c r="C2" t="n">
-        <v>46285.36</v>
+        <v>46343.24</v>
       </c>
       <c r="D2" t="n">
-        <v>46524.19</v>
+        <v>45399.63</v>
       </c>
       <c r="E2" t="n">
-        <v>45955.65</v>
+        <v>45525.1</v>
       </c>
       <c r="F2" t="n">
-        <v>46002.27</v>
+        <v>46265.55</v>
       </c>
       <c r="G2" t="n">
-        <v>45687.21</v>
-      </c>
-      <c r="H2" t="n">
-        <v>45578.36</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46076.61</v>
-      </c>
-      <c r="J2" t="n">
-        <v>45909.32</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46091</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46024.22</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46065.08</v>
+        <v>46000.85</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>340021.01</v>
+        <v>336353.49</v>
       </c>
       <c r="C3" t="n">
-        <v>339657.57</v>
+        <v>336641.31</v>
       </c>
       <c r="D3" t="n">
-        <v>339925.64</v>
+        <v>333267.09</v>
       </c>
       <c r="E3" t="n">
-        <v>340255.75</v>
+        <v>336265.81</v>
       </c>
       <c r="F3" t="n">
-        <v>340465.78</v>
+        <v>337016.03</v>
       </c>
       <c r="G3" t="n">
-        <v>339941.07</v>
-      </c>
-      <c r="H3" t="n">
-        <v>339825.04</v>
-      </c>
-      <c r="I3" t="n">
-        <v>340355.29</v>
-      </c>
-      <c r="J3" t="n">
-        <v>337053.03</v>
-      </c>
-      <c r="K3" t="n">
-        <v>336596.42</v>
-      </c>
-      <c r="L3" t="n">
-        <v>336239.36</v>
-      </c>
-      <c r="M3" t="n">
-        <v>336353.49</v>
+        <v>336468.04</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47985.63</v>
+        <v>47906.91</v>
       </c>
       <c r="C4" t="n">
-        <v>47262.34</v>
+        <v>47489.5</v>
       </c>
       <c r="D4" t="n">
-        <v>47595.11</v>
+        <v>46441.89</v>
       </c>
       <c r="E4" t="n">
-        <v>48421.51</v>
+        <v>47010.29</v>
       </c>
       <c r="F4" t="n">
-        <v>48435.68</v>
+        <v>45995.33</v>
       </c>
       <c r="G4" t="n">
-        <v>47557.74</v>
-      </c>
-      <c r="H4" t="n">
-        <v>47374.34</v>
-      </c>
-      <c r="I4" t="n">
-        <v>47817.41</v>
-      </c>
-      <c r="J4" t="n">
-        <v>46744.93</v>
-      </c>
-      <c r="K4" t="n">
-        <v>46577.18</v>
-      </c>
-      <c r="L4" t="n">
-        <v>46368.74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>47906.91</v>
+        <v>46389.02</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>144567.71</v>
+        <v>143441.83</v>
       </c>
       <c r="C5" t="n">
-        <v>144401.76</v>
+        <v>143491.35</v>
       </c>
       <c r="D5" t="n">
-        <v>144681.65</v>
+        <v>141702.87</v>
       </c>
       <c r="E5" t="n">
-        <v>144877.64</v>
+        <v>142933.73</v>
       </c>
       <c r="F5" t="n">
-        <v>144967.91</v>
+        <v>143092.3</v>
       </c>
       <c r="G5" t="n">
-        <v>144395.34</v>
-      </c>
-      <c r="H5" t="n">
-        <v>144259.25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>144749.77</v>
-      </c>
-      <c r="J5" t="n">
-        <v>143235.76</v>
-      </c>
-      <c r="K5" t="n">
-        <v>143088.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>142877.44</v>
-      </c>
-      <c r="M5" t="n">
-        <v>143441.83</v>
+        <v>142952.64</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>433703.13</v>
+        <v>430325.48</v>
       </c>
       <c r="C6" t="n">
-        <v>433205.27</v>
+        <v>430474.05</v>
       </c>
       <c r="D6" t="n">
-        <v>434044.94</v>
+        <v>425108.61</v>
       </c>
       <c r="E6" t="n">
-        <v>434632.91</v>
+        <v>428801.2</v>
       </c>
       <c r="F6" t="n">
-        <v>434903.73</v>
+        <v>429276.91</v>
       </c>
       <c r="G6" t="n">
-        <v>433186.02</v>
-      </c>
-      <c r="H6" t="n">
-        <v>432777.74</v>
-      </c>
-      <c r="I6" t="n">
-        <v>434249.31</v>
-      </c>
-      <c r="J6" t="n">
-        <v>429707.28</v>
-      </c>
-      <c r="K6" t="n">
-        <v>429264.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>428632.32</v>
-      </c>
-      <c r="M6" t="n">
-        <v>430325.48</v>
+        <v>428857.91</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>45696.49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>46285.36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>46524.19</v>
+      </c>
+      <c r="E2" t="n">
+        <v>45955.65</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46002.27</v>
+      </c>
+      <c r="G2" t="n">
+        <v>45687.21</v>
+      </c>
+      <c r="H2" t="n">
+        <v>45578.36</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46076.61</v>
+      </c>
+      <c r="J2" t="n">
+        <v>45909.32</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46091</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46024.22</v>
+      </c>
+      <c r="M2" t="n">
         <v>46065.08</v>
-      </c>
-      <c r="C2" t="n">
-        <v>46343.24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>45399.63</v>
-      </c>
-      <c r="E2" t="n">
-        <v>45525.1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>46265.55</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46000.85</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>340021.01</v>
+      </c>
+      <c r="C3" t="n">
+        <v>339657.57</v>
+      </c>
+      <c r="D3" t="n">
+        <v>339925.64</v>
+      </c>
+      <c r="E3" t="n">
+        <v>340255.75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>340465.78</v>
+      </c>
+      <c r="G3" t="n">
+        <v>339941.07</v>
+      </c>
+      <c r="H3" t="n">
+        <v>339825.04</v>
+      </c>
+      <c r="I3" t="n">
+        <v>340355.29</v>
+      </c>
+      <c r="J3" t="n">
+        <v>337053.03</v>
+      </c>
+      <c r="K3" t="n">
+        <v>336596.42</v>
+      </c>
+      <c r="L3" t="n">
+        <v>336239.36</v>
+      </c>
+      <c r="M3" t="n">
         <v>336353.49</v>
-      </c>
-      <c r="C3" t="n">
-        <v>336641.31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>333267.09</v>
-      </c>
-      <c r="E3" t="n">
-        <v>336265.81</v>
-      </c>
-      <c r="F3" t="n">
-        <v>337016.03</v>
-      </c>
-      <c r="G3" t="n">
-        <v>336468.04</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>47985.63</v>
+      </c>
+      <c r="C4" t="n">
+        <v>47262.34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47595.11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>48421.51</v>
+      </c>
+      <c r="F4" t="n">
+        <v>48435.68</v>
+      </c>
+      <c r="G4" t="n">
+        <v>47557.74</v>
+      </c>
+      <c r="H4" t="n">
+        <v>47374.34</v>
+      </c>
+      <c r="I4" t="n">
+        <v>47817.41</v>
+      </c>
+      <c r="J4" t="n">
+        <v>46744.93</v>
+      </c>
+      <c r="K4" t="n">
+        <v>46577.18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>46368.74</v>
+      </c>
+      <c r="M4" t="n">
         <v>47906.91</v>
-      </c>
-      <c r="C4" t="n">
-        <v>47489.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>46441.89</v>
-      </c>
-      <c r="E4" t="n">
-        <v>47010.29</v>
-      </c>
-      <c r="F4" t="n">
-        <v>45995.33</v>
-      </c>
-      <c r="G4" t="n">
-        <v>46389.02</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>144567.71</v>
+      </c>
+      <c r="C5" t="n">
+        <v>144401.76</v>
+      </c>
+      <c r="D5" t="n">
+        <v>144681.65</v>
+      </c>
+      <c r="E5" t="n">
+        <v>144877.64</v>
+      </c>
+      <c r="F5" t="n">
+        <v>144967.91</v>
+      </c>
+      <c r="G5" t="n">
+        <v>144395.34</v>
+      </c>
+      <c r="H5" t="n">
+        <v>144259.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>144749.77</v>
+      </c>
+      <c r="J5" t="n">
+        <v>143235.76</v>
+      </c>
+      <c r="K5" t="n">
+        <v>143088.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>142877.44</v>
+      </c>
+      <c r="M5" t="n">
         <v>143441.83</v>
-      </c>
-      <c r="C5" t="n">
-        <v>143491.35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>141702.87</v>
-      </c>
-      <c r="E5" t="n">
-        <v>142933.73</v>
-      </c>
-      <c r="F5" t="n">
-        <v>143092.3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>142952.64</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>433703.13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>433205.27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>434044.94</v>
+      </c>
+      <c r="E6" t="n">
+        <v>434632.91</v>
+      </c>
+      <c r="F6" t="n">
+        <v>434903.73</v>
+      </c>
+      <c r="G6" t="n">
+        <v>433186.02</v>
+      </c>
+      <c r="H6" t="n">
+        <v>432777.74</v>
+      </c>
+      <c r="I6" t="n">
+        <v>434249.31</v>
+      </c>
+      <c r="J6" t="n">
+        <v>429707.28</v>
+      </c>
+      <c r="K6" t="n">
+        <v>429264.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>428632.32</v>
+      </c>
+      <c r="M6" t="n">
         <v>430325.48</v>
-      </c>
-      <c r="C6" t="n">
-        <v>430474.05</v>
-      </c>
-      <c r="D6" t="n">
-        <v>425108.61</v>
-      </c>
-      <c r="E6" t="n">
-        <v>428801.2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>429276.91</v>
-      </c>
-      <c r="G6" t="n">
-        <v>428857.91</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,102 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +542,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45696.49</v>
+        <v>46065.08</v>
       </c>
       <c r="C2" t="n">
-        <v>46285.36</v>
+        <v>46343.24</v>
       </c>
       <c r="D2" t="n">
-        <v>46524.19</v>
+        <v>45399.63</v>
       </c>
       <c r="E2" t="n">
-        <v>45955.65</v>
+        <v>45525.1</v>
       </c>
       <c r="F2" t="n">
-        <v>46002.27</v>
+        <v>46265.55</v>
       </c>
       <c r="G2" t="n">
-        <v>45687.21</v>
+        <v>46000.85</v>
       </c>
       <c r="H2" t="n">
-        <v>45578.36</v>
+        <v>46053.75</v>
       </c>
       <c r="I2" t="n">
-        <v>46076.61</v>
+        <v>46232.17</v>
       </c>
       <c r="J2" t="n">
-        <v>45909.32</v>
+        <v>46437.69</v>
       </c>
       <c r="K2" t="n">
-        <v>46091</v>
+        <v>45751.44</v>
       </c>
       <c r="L2" t="n">
-        <v>46024.22</v>
+        <v>46185.94</v>
       </c>
       <c r="M2" t="n">
-        <v>46065.08</v>
+        <v>45985.98</v>
+      </c>
+      <c r="N2" t="n">
+        <v>45566.02</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46371.49</v>
+      </c>
+      <c r="P2" t="n">
+        <v>45843.81</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>45622.01</v>
+      </c>
+      <c r="R2" t="n">
+        <v>46352.66</v>
+      </c>
+      <c r="S2" t="n">
+        <v>45661.62</v>
+      </c>
+      <c r="T2" t="n">
+        <v>46327.65</v>
+      </c>
+      <c r="U2" t="n">
+        <v>46399.26</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +609,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>340021.01</v>
+        <v>336353.49</v>
       </c>
       <c r="C3" t="n">
-        <v>339657.57</v>
+        <v>336641.31</v>
       </c>
       <c r="D3" t="n">
-        <v>339925.64</v>
+        <v>333267.09</v>
       </c>
       <c r="E3" t="n">
-        <v>340255.75</v>
+        <v>336265.81</v>
       </c>
       <c r="F3" t="n">
-        <v>340465.78</v>
+        <v>337016.03</v>
       </c>
       <c r="G3" t="n">
-        <v>339941.07</v>
+        <v>336468.04</v>
       </c>
       <c r="H3" t="n">
-        <v>339825.04</v>
+        <v>336979.07</v>
       </c>
       <c r="I3" t="n">
-        <v>340355.29</v>
+        <v>336288.42</v>
       </c>
       <c r="J3" t="n">
-        <v>337053.03</v>
+        <v>336914.2</v>
       </c>
       <c r="K3" t="n">
-        <v>336596.42</v>
+        <v>336206.86</v>
       </c>
       <c r="L3" t="n">
-        <v>336239.36</v>
+        <v>336668.2</v>
       </c>
       <c r="M3" t="n">
-        <v>336353.49</v>
+        <v>336839.21</v>
+      </c>
+      <c r="N3" t="n">
+        <v>336556.73</v>
+      </c>
+      <c r="O3" t="n">
+        <v>336413.09</v>
+      </c>
+      <c r="P3" t="n">
+        <v>336404.18</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>336311.51</v>
+      </c>
+      <c r="R3" t="n">
+        <v>336896.73</v>
+      </c>
+      <c r="S3" t="n">
+        <v>336376.14</v>
+      </c>
+      <c r="T3" t="n">
+        <v>336546.94</v>
+      </c>
+      <c r="U3" t="n">
+        <v>336728.71</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +676,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47985.63</v>
+        <v>47906.91</v>
       </c>
       <c r="C4" t="n">
-        <v>47262.34</v>
+        <v>47489.5</v>
       </c>
       <c r="D4" t="n">
-        <v>47595.11</v>
+        <v>46441.89</v>
       </c>
       <c r="E4" t="n">
-        <v>48421.51</v>
+        <v>47010.29</v>
       </c>
       <c r="F4" t="n">
-        <v>48435.68</v>
+        <v>45995.33</v>
       </c>
       <c r="G4" t="n">
-        <v>47557.74</v>
+        <v>46389.02</v>
       </c>
       <c r="H4" t="n">
-        <v>47374.34</v>
+        <v>46123.39</v>
       </c>
       <c r="I4" t="n">
-        <v>47817.41</v>
+        <v>47572.01</v>
       </c>
       <c r="J4" t="n">
-        <v>46744.93</v>
+        <v>47578.74</v>
       </c>
       <c r="K4" t="n">
-        <v>46577.18</v>
+        <v>47422</v>
       </c>
       <c r="L4" t="n">
-        <v>46368.74</v>
+        <v>47975.97</v>
       </c>
       <c r="M4" t="n">
-        <v>47906.91</v>
+        <v>47217.46</v>
+      </c>
+      <c r="N4" t="n">
+        <v>47795.7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>47352.99</v>
+      </c>
+      <c r="P4" t="n">
+        <v>46609.46</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>46011.49</v>
+      </c>
+      <c r="R4" t="n">
+        <v>48041.62</v>
+      </c>
+      <c r="S4" t="n">
+        <v>47150.82</v>
+      </c>
+      <c r="T4" t="n">
+        <v>47507.16</v>
+      </c>
+      <c r="U4" t="n">
+        <v>46592.74</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +743,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>144567.71</v>
+        <v>143441.83</v>
       </c>
       <c r="C5" t="n">
-        <v>144401.76</v>
+        <v>143491.35</v>
       </c>
       <c r="D5" t="n">
-        <v>144681.65</v>
+        <v>141702.87</v>
       </c>
       <c r="E5" t="n">
-        <v>144877.64</v>
+        <v>142933.73</v>
       </c>
       <c r="F5" t="n">
-        <v>144967.91</v>
+        <v>143092.3</v>
       </c>
       <c r="G5" t="n">
-        <v>144395.34</v>
+        <v>142952.64</v>
       </c>
       <c r="H5" t="n">
-        <v>144259.25</v>
+        <v>143052.07</v>
       </c>
       <c r="I5" t="n">
-        <v>144749.77</v>
+        <v>143364.2</v>
       </c>
       <c r="J5" t="n">
-        <v>143235.76</v>
+        <v>143643.54</v>
       </c>
       <c r="K5" t="n">
-        <v>143088.2</v>
+        <v>143126.77</v>
       </c>
       <c r="L5" t="n">
-        <v>142877.44</v>
+        <v>143610.04</v>
       </c>
       <c r="M5" t="n">
-        <v>143441.83</v>
+        <v>143347.55</v>
+      </c>
+      <c r="N5" t="n">
+        <v>143306.15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>143379.19</v>
+      </c>
+      <c r="P5" t="n">
+        <v>142952.48</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>142648.34</v>
+      </c>
+      <c r="R5" t="n">
+        <v>143763.67</v>
+      </c>
+      <c r="S5" t="n">
+        <v>143062.86</v>
+      </c>
+      <c r="T5" t="n">
+        <v>143460.58</v>
+      </c>
+      <c r="U5" t="n">
+        <v>143240.24</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +810,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>433703.13</v>
+        <v>430325.48</v>
       </c>
       <c r="C6" t="n">
-        <v>433205.27</v>
+        <v>430474.05</v>
       </c>
       <c r="D6" t="n">
-        <v>434044.94</v>
+        <v>425108.61</v>
       </c>
       <c r="E6" t="n">
-        <v>434632.91</v>
+        <v>428801.2</v>
       </c>
       <c r="F6" t="n">
-        <v>434903.73</v>
+        <v>429276.91</v>
       </c>
       <c r="G6" t="n">
-        <v>433186.02</v>
+        <v>428857.91</v>
       </c>
       <c r="H6" t="n">
-        <v>432777.74</v>
+        <v>429156.21</v>
       </c>
       <c r="I6" t="n">
-        <v>434249.31</v>
+        <v>430092.6</v>
       </c>
       <c r="J6" t="n">
-        <v>429707.28</v>
+        <v>430930.63</v>
       </c>
       <c r="K6" t="n">
-        <v>429264.6</v>
+        <v>429380.3</v>
       </c>
       <c r="L6" t="n">
-        <v>428632.32</v>
+        <v>430830.11</v>
       </c>
       <c r="M6" t="n">
-        <v>430325.48</v>
+        <v>430042.65</v>
+      </c>
+      <c r="N6" t="n">
+        <v>429918.45</v>
+      </c>
+      <c r="O6" t="n">
+        <v>430137.57</v>
+      </c>
+      <c r="P6" t="n">
+        <v>428857.45</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>427945.01</v>
+      </c>
+      <c r="R6" t="n">
+        <v>431291.01</v>
+      </c>
+      <c r="S6" t="n">
+        <v>429188.58</v>
+      </c>
+      <c r="T6" t="n">
+        <v>430381.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>429720.71</v>
       </c>
     </row>
   </sheetData>
